--- a/【西安】-李鹏弟进度表.xlsx
+++ b/【西安】-李鹏弟进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -38,6 +38,22 @@
   </si>
   <si>
     <t>登录页面、更多登录方式页面</t>
+  </si>
+  <si>
+    <t>登录页面、更多登录页面、注册页面样式完成</t>
+  </si>
+  <si>
+    <t>上午完成登录、更
+多页面样式，下午完成注册页面样式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">js效果实现不能独立
+完成、需参考笔记和请教同学老师
+</t>
+  </si>
+  <si>
+    <t>没啥收获，css样式完成，
+js效果还没实现</t>
   </si>
   <si>
     <t>第二天</t>
@@ -69,12 +85,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -219,23 +228,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +271,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -274,30 +295,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,42 +319,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,13 +373,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,54 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,152 +555,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +712,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,7 +1065,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1063,10 +1075,10 @@
     <col min="3" max="3" width="22.725" customWidth="1"/>
     <col min="4" max="4" width="16.5416666666667" customWidth="1"/>
     <col min="5" max="5" width="17.8166666666667" customWidth="1"/>
-    <col min="6" max="6" width="23.725" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:6">
+    <row r="1" ht="38" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,24 +1098,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:6">
+    <row r="2" ht="78" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1112,10 +1132,10 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1124,10 +1144,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1136,10 +1156,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【西安】-李鹏弟进度表.xlsx
+++ b/【西安】-李鹏弟进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -47,9 +47,7 @@
 多页面样式，下午完成注册页面样式</t>
   </si>
   <si>
-    <t xml:space="preserve">js效果实现不能独立
-完成、需参考笔记和请教同学老师
-</t>
+    <t>手机号验证没实现</t>
   </si>
   <si>
     <t>没啥收获，css样式完成，
@@ -59,7 +57,19 @@
     <t>第二天</t>
   </si>
   <si>
-    <t>注册页面</t>
+    <t>首页底部</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>满屏高度设置</t>
   </si>
   <si>
     <t>第三天</t>
@@ -86,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1065,7 +1075,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1125,17 +1135,25 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1144,10 +1162,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1156,10 +1174,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
